--- a/03_RESULTS/01_PCA/01_wei_log.xlsx
+++ b/03_RESULTS/01_PCA/01_wei_log.xlsx
@@ -21,9 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="314">
-  <si>
-    <t>metric</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="448">
+  <si>
+    <t>PC</t>
+  </si>
+  <si>
+    <t>varname</t>
   </si>
   <si>
     <t>Below_median</t>
@@ -38,931 +41,1330 @@
     <t>1</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>81</t>
+  </si>
+  <si>
+    <t>91</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>111</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>PC1</t>
+  </si>
+  <si>
+    <t>Acceleration (mg) - All days</t>
+  </si>
+  <si>
+    <t>Duration IN (min/day) - All days</t>
+  </si>
+  <si>
+    <t>Duration LIPA (min/day) - All days</t>
+  </si>
+  <si>
+    <t>Duration MVPA (min/day) - All days</t>
+  </si>
+  <si>
+    <t>Intensity gradient intercept - All days</t>
+  </si>
+  <si>
+    <t>Intensity gradient slope - All days</t>
+  </si>
+  <si>
+    <t>Mean duration of IN bouts - All days</t>
+  </si>
+  <si>
+    <t>Mean duration of LIPA bouts - All days</t>
+  </si>
+  <si>
+    <t>Mean duration of MVPA bouts - All days</t>
+  </si>
+  <si>
+    <t>Most active 5hrs timing - All days</t>
+  </si>
+  <si>
+    <t>Number of IN bouts - All days</t>
+  </si>
+  <si>
+    <t>Number of LIPA bouts - All days</t>
+  </si>
+  <si>
+    <t>Number of MVPA bouts - All days</t>
+  </si>
+  <si>
+    <t>39.0 (8.0)</t>
+  </si>
+  <si>
+    <t>648.3 (72.5)</t>
+  </si>
+  <si>
+    <t>257.1 (54.6)</t>
+  </si>
+  <si>
+    <t>81.6 (36.4)</t>
+  </si>
+  <si>
+    <t>12.1 (0.6)</t>
+  </si>
+  <si>
+    <t>-2.0 (0.2)</t>
+  </si>
+  <si>
+    <t>8.6 (1.9)</t>
+  </si>
+  <si>
+    <t>2.5 (0.4)</t>
+  </si>
+  <si>
+    <t>2.5 (0.9)</t>
+  </si>
+  <si>
+    <t>8.0 (6.4)</t>
+  </si>
+  <si>
+    <t>80.3 (12.8)</t>
+  </si>
+  <si>
+    <t>101.1 (14.6)</t>
+  </si>
+  <si>
+    <t>32.6 (11.8)</t>
+  </si>
+  <si>
+    <t>24.6 (4.6)</t>
+  </si>
+  <si>
+    <t>787.4 (71.7)</t>
+  </si>
+  <si>
+    <t>163.6 (47.0)</t>
+  </si>
+  <si>
+    <t>30.7 (18.9)</t>
+  </si>
+  <si>
+    <t>12.7 (0.6)</t>
+  </si>
+  <si>
+    <t>-2.2 (0.2)</t>
+  </si>
+  <si>
+    <t>14.4 (7.3)</t>
+  </si>
+  <si>
+    <t>2.3 (0.3)</t>
+  </si>
+  <si>
+    <t>2.1 (0.9)</t>
+  </si>
+  <si>
+    <t>7.8 (5.8)</t>
+  </si>
+  <si>
+    <t>63.4 (14.3)</t>
+  </si>
+  <si>
+    <t>70.9 (16.1)</t>
+  </si>
+  <si>
+    <t>13.9 (7.1)</t>
+  </si>
+  <si>
+    <t>&lt; 0.001</t>
+  </si>
+  <si>
+    <t>0.30</t>
+  </si>
+  <si>
+    <t>PC2.PC</t>
+  </si>
+  <si>
+    <t>PC2.varname</t>
+  </si>
+  <si>
+    <t>PC2.Below_median</t>
+  </si>
+  <si>
+    <t>PC2.Above_median</t>
+  </si>
+  <si>
+    <t>PC2.P.VALUE</t>
+  </si>
+  <si>
     <t>2</t>
   </si>
   <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
+  <si>
+    <t>42</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>72</t>
+  </si>
+  <si>
+    <t>82</t>
+  </si>
+  <si>
+    <t>92</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>112</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <t>PC2</t>
+  </si>
+  <si>
+    <t>30.9 (8.4)</t>
+  </si>
+  <si>
+    <t>708.9 (103.4)</t>
+  </si>
+  <si>
+    <t>235.6 (72.7)</t>
+  </si>
+  <si>
+    <t>43.8 (32.3)</t>
+  </si>
+  <si>
+    <t>12.7 (0.5)</t>
+  </si>
+  <si>
+    <t>10.4 (6.4)</t>
+  </si>
+  <si>
+    <t>1.8 (0.5)</t>
+  </si>
+  <si>
+    <t>7.8 (6.2)</t>
+  </si>
+  <si>
+    <t>77.9 (16.2)</t>
+  </si>
+  <si>
+    <t>91.8 (22.4)</t>
+  </si>
+  <si>
+    <t>21.9 (14.0)</t>
+  </si>
+  <si>
+    <t>32.7 (10.7)</t>
+  </si>
+  <si>
+    <t>726.8 (96.0)</t>
+  </si>
+  <si>
+    <t>185.0 (54.8)</t>
+  </si>
+  <si>
+    <t>68.5 (40.4)</t>
+  </si>
+  <si>
+    <t>12.0 (0.6)</t>
+  </si>
+  <si>
+    <t>12.5 (5.5)</t>
+  </si>
+  <si>
+    <t>2.8 (1.0)</t>
+  </si>
+  <si>
+    <t>8.0 (6.0)</t>
+  </si>
+  <si>
+    <t>65.7 (13.2)</t>
+  </si>
+  <si>
+    <t>80.2 (18.9)</t>
+  </si>
+  <si>
+    <t>24.6 (13.0)</t>
+  </si>
+  <si>
+    <t>0.34</t>
+  </si>
+  <si>
+    <t>PC3.PC</t>
+  </si>
+  <si>
+    <t>PC3.varname</t>
+  </si>
+  <si>
+    <t>PC3.Below_median</t>
+  </si>
+  <si>
+    <t>PC3.Above_median</t>
+  </si>
+  <si>
+    <t>PC3.P.VALUE</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>43</t>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>83</t>
+  </si>
+  <si>
+    <t>93</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>113</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>PC3</t>
+  </si>
+  <si>
+    <t>31.9 (9.7)</t>
+  </si>
+  <si>
+    <t>725.0 (96.8)</t>
+  </si>
+  <si>
+    <t>208.3 (66.4)</t>
+  </si>
+  <si>
+    <t>56.9 (38.3)</t>
+  </si>
+  <si>
+    <t>12.4 (0.7)</t>
+  </si>
+  <si>
+    <t>-2.1 (0.2)</t>
+  </si>
+  <si>
+    <t>11.2 (5.2)</t>
+  </si>
+  <si>
+    <t>2.4 (0.9)</t>
+  </si>
+  <si>
+    <t>3.9 (2.0)</t>
+  </si>
+  <si>
+    <t>73.8 (15.8)</t>
+  </si>
+  <si>
+    <t>87.5 (21.2)</t>
+  </si>
+  <si>
+    <t>23.2 (13.3)</t>
+  </si>
+  <si>
+    <t>31.8 (9.7)</t>
+  </si>
+  <si>
+    <t>710.7 (103.0)</t>
+  </si>
+  <si>
+    <t>212.4 (71.7)</t>
+  </si>
+  <si>
+    <t>55.4 (38.9)</t>
+  </si>
+  <si>
+    <t>11.8 (6.8)</t>
+  </si>
+  <si>
+    <t>2.2 (0.9)</t>
+  </si>
+  <si>
+    <t>11.9 (6.2)</t>
+  </si>
+  <si>
+    <t>69.8 (16.0)</t>
+  </si>
+  <si>
+    <t>84.4 (21.8)</t>
+  </si>
+  <si>
+    <t>23.3 (13.8)</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0.87</t>
+  </si>
+  <si>
+    <t>0.74</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>PC4.PC</t>
+  </si>
+  <si>
+    <t>PC4.varname</t>
+  </si>
+  <si>
+    <t>PC4.Below_median</t>
+  </si>
+  <si>
+    <t>PC4.Above_median</t>
+  </si>
+  <si>
+    <t>PC4.P.VALUE</t>
+  </si>
+  <si>
     <t>4</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>44</t>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>74</t>
+  </si>
+  <si>
+    <t>84</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <t>114</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>PC4</t>
+  </si>
+  <si>
+    <t>32.3 (10.7)</t>
+  </si>
+  <si>
+    <t>698.6 (103.9)</t>
+  </si>
+  <si>
+    <t>217.2 (75.9)</t>
+  </si>
+  <si>
+    <t>56.9 (39.9)</t>
+  </si>
+  <si>
+    <t>12.3 (0.7)</t>
+  </si>
+  <si>
+    <t>12.4 (7.6)</t>
+  </si>
+  <si>
+    <t>2.6 (0.4)</t>
+  </si>
+  <si>
+    <t>2.3 (1.0)</t>
+  </si>
+  <si>
+    <t>6.9 (5.4)</t>
+  </si>
+  <si>
+    <t>66.3 (15.0)</t>
+  </si>
+  <si>
+    <t>81.8 (21.9)</t>
+  </si>
+  <si>
+    <t>23.6 (13.7)</t>
+  </si>
+  <si>
+    <t>31.4 (8.5)</t>
+  </si>
+  <si>
+    <t>737.1 (92.5)</t>
+  </si>
+  <si>
+    <t>203.4 (61.0)</t>
+  </si>
+  <si>
+    <t>55.4 (37.2)</t>
+  </si>
+  <si>
+    <t>12.4 (0.6)</t>
+  </si>
+  <si>
+    <t>10.6 (3.8)</t>
+  </si>
+  <si>
+    <t>2.2 (0.3)</t>
+  </si>
+  <si>
+    <t>2.3 (0.8)</t>
+  </si>
+  <si>
+    <t>8.8 (6.6)</t>
+  </si>
+  <si>
+    <t>77.4 (15.0)</t>
+  </si>
+  <si>
+    <t>90.2 (20.3)</t>
+  </si>
+  <si>
+    <t>23.0 (13.4)</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.16</t>
+  </si>
+  <si>
+    <t>PC5.PC</t>
+  </si>
+  <si>
+    <t>PC5.varname</t>
+  </si>
+  <si>
+    <t>PC5.Below_median</t>
+  </si>
+  <si>
+    <t>PC5.Above_median</t>
+  </si>
+  <si>
+    <t>PC5.P.VALUE</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>75</t>
+  </si>
+  <si>
+    <t>85</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <t>115</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>PC5</t>
+  </si>
+  <si>
+    <t>30.7 (7.7)</t>
+  </si>
+  <si>
+    <t>727.4 (83.7)</t>
+  </si>
+  <si>
+    <t>215.2 (62.1)</t>
+  </si>
+  <si>
+    <t>46.3 (29.2)</t>
+  </si>
+  <si>
+    <t>10.6 (3.3)</t>
+  </si>
+  <si>
+    <t>2.5 (1.1)</t>
+  </si>
+  <si>
+    <t>8.0 (6.3)</t>
+  </si>
+  <si>
+    <t>75.4 (14.8)</t>
+  </si>
+  <si>
+    <t>86.0 (17.7)</t>
+  </si>
+  <si>
+    <t>17.9 (8.0)</t>
+  </si>
+  <si>
+    <t>32.9 (11.2)</t>
+  </si>
+  <si>
+    <t>708.3 (113.6)</t>
+  </si>
+  <si>
+    <t>205.5 (75.2)</t>
+  </si>
+  <si>
+    <t>66.0 (43.9)</t>
+  </si>
+  <si>
+    <t>12.4 (7.8)</t>
+  </si>
+  <si>
+    <t>2.3 (0.4)</t>
+  </si>
+  <si>
+    <t>2.1 (0.6)</t>
+  </si>
+  <si>
+    <t>7.7 (5.9)</t>
+  </si>
+  <si>
+    <t>68.3 (16.4)</t>
+  </si>
+  <si>
+    <t>85.9 (24.8)</t>
+  </si>
+  <si>
+    <t>28.6 (15.7)</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.90</t>
+  </si>
+  <si>
+    <t>PC6.PC</t>
+  </si>
+  <si>
+    <t>PC6.varname</t>
+  </si>
+  <si>
+    <t>PC6.Below_median</t>
+  </si>
+  <si>
+    <t>PC6.Above_median</t>
+  </si>
+  <si>
+    <t>PC6.P.VALUE</t>
+  </si>
+  <si>
     <t>6</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>46</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>86</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>116</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>PC6</t>
+  </si>
+  <si>
+    <t>31.7 (10.0)</t>
+  </si>
+  <si>
+    <t>705.7 (93.3)</t>
+  </si>
+  <si>
+    <t>206.6 (67.1)</t>
+  </si>
+  <si>
+    <t>51.3 (36.6)</t>
+  </si>
+  <si>
+    <t>12.2 (0.7)</t>
+  </si>
+  <si>
+    <t>11.1 (5.6)</t>
+  </si>
+  <si>
+    <t>2.4 (0.4)</t>
+  </si>
+  <si>
+    <t>2.1 (0.8)</t>
+  </si>
+  <si>
+    <t>7.7 (6.0)</t>
+  </si>
+  <si>
+    <t>72.6 (16.2)</t>
+  </si>
+  <si>
+    <t>85.6 (21.2)</t>
+  </si>
+  <si>
+    <t>22.3 (13.0)</t>
+  </si>
+  <si>
+    <t>31.9 (9.3)</t>
+  </si>
+  <si>
+    <t>730.0 (105.3)</t>
+  </si>
+  <si>
+    <t>214.0 (71.0)</t>
+  </si>
+  <si>
+    <t>61.0 (39.9)</t>
+  </si>
+  <si>
+    <t>12.5 (0.6)</t>
+  </si>
+  <si>
+    <t>11.8 (6.5)</t>
+  </si>
+  <si>
+    <t>2.5 (1.0)</t>
+  </si>
+  <si>
+    <t>8.0 (6.2)</t>
+  </si>
+  <si>
+    <t>71.1 (15.7)</t>
+  </si>
+  <si>
+    <t>86.3 (21.9)</t>
+  </si>
+  <si>
+    <t>24.3 (14.0)</t>
+  </si>
+  <si>
+    <t>0.38</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>PC7.PC</t>
+  </si>
+  <si>
+    <t>PC7.varname</t>
+  </si>
+  <si>
+    <t>PC7.Below_median</t>
+  </si>
+  <si>
+    <t>PC7.Above_median</t>
+  </si>
+  <si>
+    <t>PC7.P.VALUE</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>37</t>
+  </si>
+  <si>
+    <t>47</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>87</t>
+  </si>
+  <si>
+    <t>97</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <t>117</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>PC7</t>
+  </si>
+  <si>
+    <t>31.2 (8.7)</t>
+  </si>
+  <si>
+    <t>746.6 (94.0)</t>
+  </si>
+  <si>
+    <t>214.2 (67.4)</t>
+  </si>
+  <si>
+    <t>55.6 (34.1)</t>
+  </si>
+  <si>
+    <t>11.9 (6.3)</t>
+  </si>
+  <si>
+    <t>2.2 (0.7)</t>
+  </si>
+  <si>
+    <t>72.3 (16.1)</t>
+  </si>
+  <si>
+    <t>86.9 (21.1)</t>
+  </si>
+  <si>
+    <t>24.4 (12.9)</t>
+  </si>
+  <si>
+    <t>32.4 (10.5)</t>
+  </si>
+  <si>
+    <t>689.0 (97.9)</t>
+  </si>
+  <si>
+    <t>206.4 (70.7)</t>
+  </si>
+  <si>
+    <t>56.6 (42.6)</t>
+  </si>
+  <si>
+    <t>11.1 (5.8)</t>
+  </si>
+  <si>
+    <t>2.4 (1.1)</t>
+  </si>
+  <si>
+    <t>7.8 (6.0)</t>
+  </si>
+  <si>
+    <t>71.4 (15.9)</t>
+  </si>
+  <si>
+    <t>85.1 (22.0)</t>
+  </si>
+  <si>
+    <t>22.2 (14.1)</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>PC8.PC</t>
+  </si>
+  <si>
+    <t>PC8.varname</t>
+  </si>
+  <si>
+    <t>PC8.Below_median</t>
+  </si>
+  <si>
+    <t>PC8.Above_median</t>
+  </si>
+  <si>
+    <t>PC8.P.VALUE</t>
+  </si>
+  <si>
     <t>8</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>48</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>78</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <t>PC8</t>
+  </si>
+  <si>
+    <t>29.0 (5.8)</t>
+  </si>
+  <si>
+    <t>725.4 (79.0)</t>
+  </si>
+  <si>
+    <t>197.6 (53.2)</t>
+  </si>
+  <si>
+    <t>47.0 (21.4)</t>
+  </si>
+  <si>
+    <t>12.4 (0.5)</t>
+  </si>
+  <si>
+    <t>-2.1 (0.1)</t>
+  </si>
+  <si>
+    <t>11.4 (3.6)</t>
+  </si>
+  <si>
+    <t>2.4 (0.3)</t>
+  </si>
+  <si>
+    <t>2.1 (0.5)</t>
+  </si>
+  <si>
+    <t>69.7 (13.3)</t>
+  </si>
+  <si>
+    <t>82.2 (16.5)</t>
+  </si>
+  <si>
+    <t>21.6 (8.7)</t>
+  </si>
+  <si>
+    <t>34.6 (11.8)</t>
+  </si>
+  <si>
+    <t>710.3 (117.1)</t>
+  </si>
+  <si>
+    <t>223.0 (80.1)</t>
+  </si>
+  <si>
+    <t>65.3 (48.5)</t>
+  </si>
+  <si>
+    <t>12.3 (0.8)</t>
+  </si>
+  <si>
+    <t>-2.1 (0.3)</t>
+  </si>
+  <si>
+    <t>11.5 (7.8)</t>
+  </si>
+  <si>
+    <t>2.5 (1.2)</t>
+  </si>
+  <si>
+    <t>74.0 (18.0)</t>
+  </si>
+  <si>
+    <t>89.8 (25.0)</t>
+  </si>
+  <si>
+    <t>24.9 (16.9)</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>PC9.PC</t>
+  </si>
+  <si>
+    <t>PC9.varname</t>
+  </si>
+  <si>
+    <t>PC9.Below_median</t>
+  </si>
+  <si>
+    <t>PC9.Above_median</t>
+  </si>
+  <si>
+    <t>PC9.P.VALUE</t>
+  </si>
+  <si>
     <t>9</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>39</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>79</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>99</t>
+  </si>
+  <si>
+    <t>109</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>PC9</t>
+  </si>
+  <si>
+    <t>32.0 (9.5)</t>
+  </si>
+  <si>
+    <t>726.1 (87.0)</t>
+  </si>
+  <si>
+    <t>201.8 (47.1)</t>
+  </si>
+  <si>
+    <t>55.4 (38.7)</t>
+  </si>
+  <si>
+    <t>12.5 (0.7)</t>
+  </si>
+  <si>
+    <t>11.1 (3.2)</t>
+  </si>
+  <si>
+    <t>2.2 (0.8)</t>
+  </si>
+  <si>
+    <t>70.4 (11.7)</t>
+  </si>
+  <si>
+    <t>83.5 (14.8)</t>
+  </si>
+  <si>
+    <t>22.5 (11.4)</t>
+  </si>
+  <si>
+    <t>31.6 (9.9)</t>
+  </si>
+  <si>
+    <t>709.6 (111.2)</t>
+  </si>
+  <si>
+    <t>218.8 (84.9)</t>
+  </si>
+  <si>
+    <t>56.9 (38.5)</t>
+  </si>
+  <si>
+    <t>12.3 (0.6)</t>
+  </si>
+  <si>
+    <t>11.8 (8.0)</t>
+  </si>
+  <si>
+    <t>2.4 (1.0)</t>
+  </si>
+  <si>
+    <t>73.3 (19.3)</t>
+  </si>
+  <si>
+    <t>88.4 (26.4)</t>
+  </si>
+  <si>
+    <t>24.0 (15.4)</t>
+  </si>
+  <si>
+    <t>0.20</t>
+  </si>
+  <si>
+    <t>0.84</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>PC10.PC</t>
+  </si>
+  <si>
+    <t>PC10.varname</t>
+  </si>
+  <si>
+    <t>PC10.Below_median</t>
+  </si>
+  <si>
+    <t>PC10.Above_median</t>
+  </si>
+  <si>
+    <t>PC10.P.VALUE</t>
+  </si>
+  <si>
     <t>10</t>
   </si>
   <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>dur_day_total_IN_min_wei</t>
-  </si>
-  <si>
-    <t>dur_day_total_LIG_min_wei</t>
-  </si>
-  <si>
-    <t>FRAG_Nfrag_IN_day_wei</t>
-  </si>
-  <si>
-    <t>FRAG_Nfrag_LIPA_day_wei</t>
-  </si>
-  <si>
-    <t>FRAG_Nfrag_MVPA_day_wei</t>
-  </si>
-  <si>
-    <t>FRAG_mean_dur_LIPA_day_wei</t>
-  </si>
-  <si>
-    <t>ig_gradient_wei</t>
-  </si>
-  <si>
-    <t>ig_intercept_wei</t>
-  </si>
-  <si>
-    <t>log_ACC_day_mg_wei</t>
-  </si>
-  <si>
-    <t>log_dur_day_total_MVPA_min_wei</t>
-  </si>
-  <si>
-    <t>log_FRAG_mean_dur_IN_day_wei</t>
-  </si>
-  <si>
-    <t>log_FRAG_mean_dur_MVPA_day_wei</t>
-  </si>
-  <si>
-    <t>log_M5TIME_num_wei</t>
-  </si>
-  <si>
-    <t>648.3 (72.53)</t>
-  </si>
-  <si>
-    <t>257.1 (54.61)</t>
-  </si>
-  <si>
-    <t>80.3 (12.77)</t>
-  </si>
-  <si>
-    <t>101.1 (14.65)</t>
-  </si>
-  <si>
-    <t>32.6 (11.85)</t>
-  </si>
-  <si>
-    <t>2.5 (0.35)</t>
-  </si>
-  <si>
-    <t>-2.0 (0.15)</t>
-  </si>
-  <si>
-    <t>12.1 (0.57)</t>
-  </si>
-  <si>
-    <t>3.7 (0.17)</t>
-  </si>
-  <si>
-    <t>4.3 (0.44)</t>
-  </si>
-  <si>
-    <t>2.2 (0.19)</t>
-  </si>
-  <si>
-    <t>1.2 (0.21)</t>
-  </si>
-  <si>
-    <t>2.0 (0.71)</t>
-  </si>
-  <si>
-    <t>787.4 (71.70)</t>
-  </si>
-  <si>
-    <t>163.6 (47.04)</t>
-  </si>
-  <si>
-    <t>63.4 (14.35)</t>
-  </si>
-  <si>
-    <t>70.9 (16.11)</t>
-  </si>
-  <si>
-    <t>13.9 (7.13)</t>
-  </si>
-  <si>
-    <t>2.3 (0.34)</t>
-  </si>
-  <si>
-    <t>-2.2 (0.20)</t>
-  </si>
-  <si>
-    <t>12.7 (0.61)</t>
-  </si>
-  <si>
-    <t>3.2 (0.20)</t>
-  </si>
-  <si>
-    <t>3.2 (0.80)</t>
-  </si>
-  <si>
-    <t>2.7 (0.31)</t>
-  </si>
-  <si>
-    <t>1.1 (0.26)</t>
-  </si>
-  <si>
-    <t>2.0 (0.65)</t>
-  </si>
-  <si>
-    <t>&lt; 0.001</t>
-  </si>
-  <si>
-    <t>0.57</t>
-  </si>
-  <si>
-    <t>PC2.metric</t>
-  </si>
-  <si>
-    <t>PC2.Below_median</t>
-  </si>
-  <si>
-    <t>PC2.Above_median</t>
-  </si>
-  <si>
-    <t>PC2.P.VALUE</t>
-  </si>
-  <si>
-    <t>708.9 (103.44)</t>
-  </si>
-  <si>
-    <t>235.6 (72.69)</t>
-  </si>
-  <si>
-    <t>77.9 (16.20)</t>
-  </si>
-  <si>
-    <t>91.8 (22.45)</t>
-  </si>
-  <si>
-    <t>21.9 (13.98)</t>
-  </si>
-  <si>
-    <t>2.5 (0.38)</t>
-  </si>
-  <si>
-    <t>-2.2 (0.19)</t>
-  </si>
-  <si>
-    <t>12.7 (0.50)</t>
-  </si>
-  <si>
-    <t>3.4 (0.27)</t>
-  </si>
-  <si>
-    <t>3.5 (0.92)</t>
-  </si>
-  <si>
-    <t>2.4 (0.34)</t>
-  </si>
-  <si>
-    <t>1.0 (0.18)</t>
-  </si>
-  <si>
-    <t>1.9 (0.69)</t>
-  </si>
-  <si>
-    <t>726.8 (96.03)</t>
-  </si>
-  <si>
-    <t>185.0 (54.84)</t>
-  </si>
-  <si>
-    <t>65.7 (13.25)</t>
-  </si>
-  <si>
-    <t>80.2 (18.93)</t>
-  </si>
-  <si>
-    <t>24.6 (12.96)</t>
-  </si>
-  <si>
-    <t>2.3 (0.30)</t>
-  </si>
-  <si>
-    <t>-2.0 (0.20)</t>
-  </si>
-  <si>
-    <t>12.0 (0.61)</t>
-  </si>
-  <si>
-    <t>3.5 (0.30)</t>
-  </si>
-  <si>
-    <t>4.1 (0.67)</t>
-  </si>
-  <si>
-    <t>2.5 (0.31)</t>
-  </si>
-  <si>
-    <t>1.3 (0.22)</t>
-  </si>
-  <si>
-    <t>2.0 (0.67)</t>
-  </si>
-  <si>
-    <t>0.07</t>
-  </si>
-  <si>
-    <t>PC3.metric</t>
-  </si>
-  <si>
-    <t>PC3.Below_median</t>
-  </si>
-  <si>
-    <t>PC3.Above_median</t>
-  </si>
-  <si>
-    <t>PC3.P.VALUE</t>
-  </si>
-  <si>
-    <t>725.0 (96.83)</t>
-  </si>
-  <si>
-    <t>208.3 (66.44)</t>
-  </si>
-  <si>
-    <t>73.8 (15.77)</t>
-  </si>
-  <si>
-    <t>87.5 (21.19)</t>
-  </si>
-  <si>
-    <t>23.2 (13.30)</t>
-  </si>
-  <si>
-    <t>-2.1 (0.21)</t>
-  </si>
-  <si>
-    <t>12.4 (0.66)</t>
-  </si>
-  <si>
-    <t>3.5 (0.28)</t>
-  </si>
-  <si>
-    <t>3.8 (0.82)</t>
-  </si>
-  <si>
-    <t>2.4 (0.32)</t>
-  </si>
-  <si>
-    <t>1.2 (0.25)</t>
-  </si>
-  <si>
-    <t>1.5 (0.51)</t>
-  </si>
-  <si>
-    <t>710.7 (102.96)</t>
-  </si>
-  <si>
-    <t>212.4 (71.73)</t>
-  </si>
-  <si>
-    <t>69.8 (15.99)</t>
-  </si>
-  <si>
-    <t>84.4 (21.81)</t>
-  </si>
-  <si>
-    <t>23.3 (13.79)</t>
-  </si>
-  <si>
-    <t>-2.1 (0.22)</t>
-  </si>
-  <si>
-    <t>12.4 (0.67)</t>
-  </si>
-  <si>
-    <t>3.4 (0.30)</t>
-  </si>
-  <si>
-    <t>3.7 (0.88)</t>
-  </si>
-  <si>
-    <t>1.1 (0.24)</t>
-  </si>
-  <si>
-    <t>2.5 (0.43)</t>
-  </si>
-  <si>
-    <t>0.06</t>
-  </si>
-  <si>
-    <t>0.83</t>
-  </si>
-  <si>
-    <t>0.74</t>
-  </si>
-  <si>
-    <t>0.87</t>
-  </si>
-  <si>
-    <t>0.42</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>PC4.metric</t>
-  </si>
-  <si>
-    <t>PC4.Below_median</t>
-  </si>
-  <si>
-    <t>PC4.Above_median</t>
-  </si>
-  <si>
-    <t>PC4.P.VALUE</t>
-  </si>
-  <si>
-    <t>698.6 (103.88)</t>
-  </si>
-  <si>
-    <t>217.2 (75.87)</t>
-  </si>
-  <si>
-    <t>66.3 (15.01)</t>
-  </si>
-  <si>
-    <t>81.8 (21.95)</t>
-  </si>
-  <si>
-    <t>23.6 (13.73)</t>
-  </si>
-  <si>
-    <t>2.6 (0.36)</t>
-  </si>
-  <si>
-    <t>-2.1 (0.23)</t>
-  </si>
-  <si>
-    <t>12.3 (0.69)</t>
-  </si>
-  <si>
-    <t>3.5 (0.32)</t>
-  </si>
-  <si>
-    <t>3.8 (0.89)</t>
-  </si>
-  <si>
-    <t>2.5 (0.37)</t>
-  </si>
-  <si>
-    <t>1.2 (0.26)</t>
-  </si>
-  <si>
-    <t>1.9 (0.67)</t>
-  </si>
-  <si>
-    <t>737.1 (92.46)</t>
-  </si>
-  <si>
-    <t>203.4 (60.95)</t>
-  </si>
-  <si>
-    <t>77.4 (15.03)</t>
-  </si>
-  <si>
-    <t>90.2 (20.31)</t>
-  </si>
-  <si>
-    <t>23.0 (13.36)</t>
-  </si>
-  <si>
-    <t>2.2 (0.25)</t>
-  </si>
-  <si>
-    <t>12.4 (0.63)</t>
-  </si>
-  <si>
-    <t>3.4 (0.26)</t>
-  </si>
-  <si>
-    <t>3.8 (0.81)</t>
-  </si>
-  <si>
-    <t>2.4 (0.28)</t>
-  </si>
-  <si>
-    <t>1.2 (0.23)</t>
-  </si>
-  <si>
-    <t>2.1 (0.68)</t>
-  </si>
-  <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.01</t>
-  </si>
-  <si>
-    <t>0.18</t>
-  </si>
-  <si>
-    <t>0.02</t>
-  </si>
-  <si>
-    <t>PC5.metric</t>
-  </si>
-  <si>
-    <t>PC5.Below_median</t>
-  </si>
-  <si>
-    <t>PC5.Above_median</t>
-  </si>
-  <si>
-    <t>PC5.P.VALUE</t>
-  </si>
-  <si>
-    <t>727.4 (83.67)</t>
-  </si>
-  <si>
-    <t>215.2 (62.13)</t>
-  </si>
-  <si>
-    <t>75.4 (14.76)</t>
-  </si>
-  <si>
-    <t>86.0 (17.69)</t>
-  </si>
-  <si>
-    <t>17.9 (7.97)</t>
-  </si>
-  <si>
-    <t>-2.1 (0.20)</t>
-  </si>
-  <si>
-    <t>12.3 (0.67)</t>
-  </si>
-  <si>
-    <t>3.4 (0.22)</t>
-  </si>
-  <si>
-    <t>3.7 (0.68)</t>
-  </si>
-  <si>
-    <t>2.4 (0.26)</t>
-  </si>
-  <si>
-    <t>2.0 (0.69)</t>
-  </si>
-  <si>
-    <t>708.3 (113.57)</t>
-  </si>
-  <si>
-    <t>205.5 (75.24)</t>
-  </si>
-  <si>
-    <t>68.3 (16.41)</t>
-  </si>
-  <si>
-    <t>85.9 (24.83)</t>
-  </si>
-  <si>
-    <t>28.6 (15.68)</t>
-  </si>
-  <si>
-    <t>2.3 (0.35)</t>
-  </si>
-  <si>
-    <t>12.4 (0.65)</t>
-  </si>
-  <si>
-    <t>3.5 (0.34)</t>
-  </si>
-  <si>
-    <t>3.9 (0.98)</t>
-  </si>
-  <si>
-    <t>2.5 (0.39)</t>
-  </si>
-  <si>
-    <t>1.1 (0.21)</t>
-  </si>
-  <si>
-    <t>0.90</t>
-  </si>
-  <si>
-    <t>0.39</t>
-  </si>
-  <si>
-    <t>PC6.metric</t>
-  </si>
-  <si>
-    <t>PC6.Below_median</t>
-  </si>
-  <si>
-    <t>PC6.Above_median</t>
-  </si>
-  <si>
-    <t>PC6.P.VALUE</t>
-  </si>
-  <si>
-    <t>705.7 (93.28)</t>
-  </si>
-  <si>
-    <t>206.6 (67.08)</t>
-  </si>
-  <si>
-    <t>72.6 (16.25)</t>
-  </si>
-  <si>
-    <t>85.6 (21.16)</t>
-  </si>
-  <si>
-    <t>22.3 (13.02)</t>
-  </si>
-  <si>
-    <t>2.4 (0.36)</t>
-  </si>
-  <si>
-    <t>-2.0 (0.23)</t>
-  </si>
-  <si>
-    <t>12.2 (0.70)</t>
-  </si>
-  <si>
-    <t>3.4 (0.29)</t>
-  </si>
-  <si>
-    <t>3.6 (0.92)</t>
-  </si>
-  <si>
-    <t>2.4 (0.33)</t>
-  </si>
-  <si>
-    <t>1.9 (0.68)</t>
-  </si>
-  <si>
-    <t>730.0 (105.28)</t>
-  </si>
-  <si>
-    <t>214.0 (71.01)</t>
-  </si>
-  <si>
-    <t>71.1 (15.72)</t>
-  </si>
-  <si>
-    <t>86.3 (21.94)</t>
-  </si>
-  <si>
-    <t>24.3 (13.98)</t>
-  </si>
-  <si>
-    <t>2.4 (0.38)</t>
-  </si>
-  <si>
-    <t>12.5 (0.58)</t>
-  </si>
-  <si>
-    <t>3.5 (0.29)</t>
-  </si>
-  <si>
-    <t>3.9 (0.75)</t>
-  </si>
-  <si>
-    <t>2.5 (0.34)</t>
-  </si>
-  <si>
-    <t>1.2 (0.24)</t>
-  </si>
-  <si>
-    <t>2.0 (0.68)</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.26</t>
+    <t>20</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>110</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>PC10</t>
+  </si>
+  <si>
+    <t>32.7 (9.0)</t>
+  </si>
+  <si>
+    <t>705.9 (86.8)</t>
+  </si>
+  <si>
+    <t>219.3 (70.2)</t>
+  </si>
+  <si>
+    <t>55.3 (31.2)</t>
+  </si>
+  <si>
+    <t>11.4 (7.6)</t>
+  </si>
+  <si>
+    <t>74.7 (18.3)</t>
+  </si>
+  <si>
+    <t>88.6 (21.8)</t>
+  </si>
+  <si>
+    <t>22.9 (9.3)</t>
+  </si>
+  <si>
+    <t>30.9 (10.2)</t>
+  </si>
+  <si>
+    <t>729.7 (110.7)</t>
+  </si>
+  <si>
+    <t>201.3 (66.9)</t>
+  </si>
+  <si>
+    <t>57.0 (44.7)</t>
+  </si>
+  <si>
+    <t>11.6 (4.1)</t>
+  </si>
+  <si>
+    <t>69.0 (12.7)</t>
+  </si>
+  <si>
+    <t>83.3 (21.0)</t>
+  </si>
+  <si>
+    <t>23.6 (16.7)</t>
+  </si>
+  <si>
+    <t>0.17</t>
   </si>
   <si>
     <t>0.08</t>
   </si>
   <si>
-    <t>PC7.metric</t>
-  </si>
-  <si>
-    <t>PC7.Below_median</t>
-  </si>
-  <si>
-    <t>PC7.Above_median</t>
-  </si>
-  <si>
-    <t>PC7.P.VALUE</t>
-  </si>
-  <si>
-    <t>746.6 (93.97)</t>
-  </si>
-  <si>
-    <t>214.2 (67.38)</t>
-  </si>
-  <si>
-    <t>72.3 (16.10)</t>
-  </si>
-  <si>
-    <t>86.9 (21.10)</t>
-  </si>
-  <si>
-    <t>24.4 (12.87)</t>
-  </si>
-  <si>
-    <t>12.3 (0.66)</t>
-  </si>
-  <si>
-    <t>3.8 (0.78)</t>
-  </si>
-  <si>
-    <t>2.5 (0.33)</t>
-  </si>
-  <si>
-    <t>689.0 (97.93)</t>
-  </si>
-  <si>
-    <t>206.4 (70.70)</t>
-  </si>
-  <si>
-    <t>71.4 (15.91)</t>
-  </si>
-  <si>
-    <t>85.1 (21.97)</t>
-  </si>
-  <si>
-    <t>22.2 (14.11)</t>
-  </si>
-  <si>
-    <t>2.4 (0.35)</t>
-  </si>
-  <si>
-    <t>3.5 (0.31)</t>
-  </si>
-  <si>
-    <t>3.7 (0.92)</t>
-  </si>
-  <si>
-    <t>1.2 (0.27)</t>
-  </si>
-  <si>
-    <t>0.09</t>
-  </si>
-  <si>
-    <t>0.15</t>
-  </si>
-  <si>
-    <t>PC8.metric</t>
-  </si>
-  <si>
-    <t>PC8.Below_median</t>
-  </si>
-  <si>
-    <t>PC8.Above_median</t>
-  </si>
-  <si>
-    <t>PC8.P.VALUE</t>
-  </si>
-  <si>
-    <t>725.4 (79.03)</t>
-  </si>
-  <si>
-    <t>197.6 (53.19)</t>
-  </si>
-  <si>
-    <t>69.7 (13.35)</t>
-  </si>
-  <si>
-    <t>82.2 (16.54)</t>
-  </si>
-  <si>
-    <t>21.6 (8.74)</t>
-  </si>
-  <si>
-    <t>-2.1 (0.15)</t>
-  </si>
-  <si>
-    <t>12.4 (0.47)</t>
-  </si>
-  <si>
-    <t>3.4 (0.20)</t>
-  </si>
-  <si>
-    <t>3.8 (0.50)</t>
-  </si>
-  <si>
-    <t>2.5 (0.26)</t>
-  </si>
-  <si>
-    <t>1.1 (0.16)</t>
-  </si>
-  <si>
-    <t>710.3 (117.13)</t>
-  </si>
-  <si>
-    <t>223.0 (80.11)</t>
-  </si>
-  <si>
-    <t>74.0 (18.03)</t>
-  </si>
-  <si>
-    <t>89.8 (25.04)</t>
-  </si>
-  <si>
-    <t>24.9 (16.89)</t>
-  </si>
-  <si>
-    <t>2.4 (0.40)</t>
-  </si>
-  <si>
-    <t>-2.1 (0.27)</t>
-  </si>
-  <si>
-    <t>12.3 (0.81)</t>
-  </si>
-  <si>
-    <t>3.5 (0.35)</t>
-  </si>
-  <si>
-    <t>3.8 (1.10)</t>
-  </si>
-  <si>
-    <t>1.2 (0.30)</t>
-  </si>
-  <si>
-    <t>0.56</t>
-  </si>
-  <si>
-    <t>0.67</t>
-  </si>
-  <si>
-    <t>PC9.metric</t>
-  </si>
-  <si>
-    <t>PC9.Below_median</t>
-  </si>
-  <si>
-    <t>PC9.Above_median</t>
-  </si>
-  <si>
-    <t>PC9.P.VALUE</t>
-  </si>
-  <si>
-    <t>726.1 (87.02)</t>
-  </si>
-  <si>
-    <t>201.8 (47.07)</t>
-  </si>
-  <si>
-    <t>70.4 (11.71)</t>
-  </si>
-  <si>
-    <t>83.5 (14.78)</t>
-  </si>
-  <si>
-    <t>22.5 (11.36)</t>
-  </si>
-  <si>
-    <t>12.5 (0.70)</t>
-  </si>
-  <si>
-    <t>3.5 (0.26)</t>
-  </si>
-  <si>
-    <t>3.8 (0.84)</t>
-  </si>
-  <si>
-    <t>2.5 (0.23)</t>
-  </si>
-  <si>
-    <t>709.6 (111.23)</t>
-  </si>
-  <si>
-    <t>218.8 (84.91)</t>
-  </si>
-  <si>
-    <t>73.3 (19.27)</t>
-  </si>
-  <si>
-    <t>88.4 (26.44)</t>
-  </si>
-  <si>
-    <t>24.0 (15.39)</t>
-  </si>
-  <si>
-    <t>2.4 (0.39)</t>
-  </si>
-  <si>
-    <t>12.3 (0.62)</t>
-  </si>
-  <si>
-    <t>3.4 (0.32)</t>
-  </si>
-  <si>
-    <t>3.8 (0.86)</t>
-  </si>
-  <si>
-    <t>2.4 (0.42)</t>
-  </si>
-  <si>
-    <t>0.84</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0.05</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>PC10.metric</t>
-  </si>
-  <si>
-    <t>PC10.Below_median</t>
-  </si>
-  <si>
-    <t>PC10.Above_median</t>
-  </si>
-  <si>
-    <t>PC10.P.VALUE</t>
-  </si>
-  <si>
-    <t>705.9 (86.81)</t>
-  </si>
-  <si>
-    <t>219.3 (70.22)</t>
-  </si>
-  <si>
-    <t>74.7 (18.28)</t>
-  </si>
-  <si>
-    <t>88.6 (21.76)</t>
-  </si>
-  <si>
-    <t>22.9 (9.33)</t>
-  </si>
-  <si>
-    <t>3.9 (0.69)</t>
-  </si>
-  <si>
-    <t>2.4 (0.37)</t>
-  </si>
-  <si>
-    <t>729.7 (110.74)</t>
-  </si>
-  <si>
-    <t>201.3 (66.89)</t>
-  </si>
-  <si>
-    <t>69.0 (12.72)</t>
-  </si>
-  <si>
-    <t>83.3 (21.03)</t>
-  </si>
-  <si>
-    <t>23.6 (16.73)</t>
-  </si>
-  <si>
-    <t>3.4 (0.31)</t>
-  </si>
-  <si>
-    <t>3.7 (0.98)</t>
-  </si>
-  <si>
-    <t>2.5 (0.29)</t>
+    <t>0.43</t>
   </si>
   <si>
     <t>0.11</t>
-  </si>
-  <si>
-    <t>0.12</t>
-  </si>
-  <si>
-    <t>0.49</t>
   </si>
 </sst>
 </file>
@@ -1027,226 +1429,268 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>32</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>45</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>49</v>
+        <v>38</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>51</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>54</v>
+        <v>43</v>
       </c>
       <c r="E13" t="s">
         <v>56</v>
       </c>
+      <c r="F13" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1265,237 +1709,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>292</v>
+        <v>409</v>
       </c>
       <c r="C1" t="s">
-        <v>293</v>
+        <v>410</v>
       </c>
       <c r="D1" t="s">
-        <v>294</v>
+        <v>411</v>
       </c>
       <c r="E1" t="s">
-        <v>295</v>
+        <v>412</v>
+      </c>
+      <c r="F1" t="s">
+        <v>413</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>427</v>
       </c>
       <c r="C2" t="s">
-        <v>296</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>303</v>
+        <v>428</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>436</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>427</v>
       </c>
       <c r="C3" t="s">
-        <v>297</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>429</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>437</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>427</v>
       </c>
       <c r="C4" t="s">
-        <v>298</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>430</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>438</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>427</v>
       </c>
       <c r="C5" t="s">
-        <v>299</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>439</v>
+      </c>
+      <c r="F5" t="s">
+        <v>444</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>427</v>
       </c>
       <c r="C6" t="s">
-        <v>300</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>311</v>
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>419</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>427</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>302</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>420</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>427</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s">
-        <v>312</v>
+        <v>440</v>
+      </c>
+      <c r="F8" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>421</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>427</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>427</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>308</v>
+        <v>187</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>175</v>
+      </c>
+      <c r="F10" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>427</v>
       </c>
       <c r="C11" t="s">
-        <v>301</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>309</v>
+        <v>41</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>424</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>427</v>
       </c>
       <c r="C12" t="s">
-        <v>302</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>310</v>
+        <v>433</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>441</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>425</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>427</v>
       </c>
       <c r="C13" t="s">
-        <v>149</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>434</v>
       </c>
       <c r="E13" t="s">
-        <v>313</v>
+        <v>442</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>427</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>435</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>443</v>
+      </c>
+      <c r="F14" t="s">
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -1514,237 +2000,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E1" t="s">
-        <v>61</v>
+        <v>63</v>
+      </c>
+      <c r="F1" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>65</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>90</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C3" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>91</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="C4" t="s">
-        <v>64</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>92</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>93</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>66</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>94</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>70</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>78</v>
       </c>
       <c r="C7" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>82</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>52</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>73</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>96</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
       <c r="C11" t="s">
-        <v>71</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>97</v>
+      </c>
+      <c r="F11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>75</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s">
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>78</v>
       </c>
       <c r="C13" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>99</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>77</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1763,237 +2291,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="E1" t="s">
-        <v>92</v>
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>120</v>
       </c>
       <c r="C2" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>133</v>
+      </c>
+      <c r="F2" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>106</v>
+        <v>122</v>
       </c>
       <c r="E3" t="s">
-        <v>116</v>
+        <v>134</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>109</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="C4" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>135</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>124</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>136</v>
+      </c>
+      <c r="F5" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>120</v>
       </c>
       <c r="C6" t="s">
-        <v>97</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="E6" t="s">
-        <v>117</v>
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>112</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>120</v>
       </c>
       <c r="C7" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>137</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>120</v>
       </c>
       <c r="C9" t="s">
-        <v>99</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>111</v>
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>119</v>
+        <v>39</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>120</v>
       </c>
       <c r="C10" t="s">
-        <v>100</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>112</v>
+        <v>128</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>138</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>120</v>
       </c>
       <c r="C11" t="s">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="E11" t="s">
-        <v>121</v>
+        <v>139</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>120</v>
       </c>
       <c r="C12" t="s">
-        <v>102</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
+        <v>130</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>140</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>118</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>120</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>141</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>120</v>
       </c>
       <c r="C14" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -2012,237 +2582,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>122</v>
+        <v>149</v>
       </c>
       <c r="C1" t="s">
-        <v>123</v>
+        <v>150</v>
       </c>
       <c r="D1" t="s">
-        <v>124</v>
+        <v>151</v>
       </c>
       <c r="E1" t="s">
-        <v>125</v>
+        <v>152</v>
+      </c>
+      <c r="F1" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>167</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>139</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>180</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>169</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>181</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>167</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>141</v>
+        <v>170</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>182</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>167</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>142</v>
+        <v>171</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>151</v>
+        <v>184</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>167</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>167</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>185</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>167</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>145</v>
+        <v>174</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>186</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="E10" t="s">
-        <v>153</v>
+        <v>187</v>
+      </c>
+      <c r="F10" t="s">
+        <v>194</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>167</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>176</v>
       </c>
       <c r="E11" t="s">
-        <v>57</v>
+        <v>188</v>
+      </c>
+      <c r="F11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>189</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>149</v>
+        <v>178</v>
       </c>
       <c r="E13" t="s">
-        <v>154</v>
+        <v>190</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>166</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>167</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>150</v>
+        <v>179</v>
       </c>
       <c r="E14" t="s">
-        <v>56</v>
+        <v>191</v>
+      </c>
+      <c r="F14" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>
@@ -2261,237 +2873,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="D1" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="E1" t="s">
-        <v>158</v>
+        <v>199</v>
+      </c>
+      <c r="F1" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>201</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>214</v>
       </c>
       <c r="C2" t="s">
-        <v>159</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>170</v>
+        <v>215</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>225</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>202</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>214</v>
       </c>
       <c r="C3" t="s">
-        <v>160</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>171</v>
+        <v>216</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>226</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
-        <v>161</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>172</v>
+        <v>217</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>227</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>204</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>214</v>
       </c>
       <c r="C5" t="s">
-        <v>162</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>173</v>
+        <v>218</v>
       </c>
       <c r="E5" t="s">
-        <v>181</v>
+        <v>228</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>205</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>214</v>
       </c>
       <c r="C6" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>206</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>214</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>175</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>207</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>219</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>229</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>214</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>176</v>
+        <v>39</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>230</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>209</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>214</v>
       </c>
       <c r="C10" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>177</v>
+        <v>220</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>231</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>210</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>214</v>
       </c>
       <c r="C11" t="s">
-        <v>167</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>178</v>
+        <v>221</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>232</v>
+      </c>
+      <c r="F11" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>211</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>179</v>
+        <v>222</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>233</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>212</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>214</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>180</v>
+        <v>223</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>234</v>
+      </c>
+      <c r="F13" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>213</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>214</v>
       </c>
       <c r="C14" t="s">
-        <v>169</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>87</v>
+        <v>224</v>
       </c>
       <c r="E14" t="s">
-        <v>182</v>
+        <v>235</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2510,237 +3164,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="C1" t="s">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="D1" t="s">
-        <v>185</v>
+        <v>240</v>
       </c>
       <c r="E1" t="s">
-        <v>186</v>
+        <v>241</v>
+      </c>
+      <c r="F1" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>243</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>256</v>
       </c>
       <c r="C2" t="s">
-        <v>187</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>199</v>
+        <v>257</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>269</v>
+      </c>
+      <c r="F2" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="C3" t="s">
-        <v>188</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>270</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>245</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>256</v>
       </c>
       <c r="C4" t="s">
-        <v>189</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>271</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>246</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>256</v>
       </c>
       <c r="C5" t="s">
-        <v>190</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>211</v>
+        <v>272</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>256</v>
       </c>
       <c r="C6" t="s">
-        <v>191</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>273</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>248</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>256</v>
       </c>
       <c r="C7" t="s">
-        <v>192</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>204</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>249</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>256</v>
       </c>
       <c r="C8" t="s">
-        <v>193</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>262</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>274</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>250</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>256</v>
       </c>
       <c r="C9" t="s">
-        <v>194</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>251</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>256</v>
       </c>
       <c r="C10" t="s">
-        <v>195</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>212</v>
+        <v>275</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>252</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>256</v>
       </c>
       <c r="C11" t="s">
-        <v>196</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>276</v>
+      </c>
+      <c r="F11" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>253</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>256</v>
       </c>
       <c r="C12" t="s">
-        <v>197</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>277</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>278</v>
+      </c>
+      <c r="F13" t="s">
+        <v>282</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>255</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="C14" t="s">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="E14" t="s">
-        <v>213</v>
+        <v>279</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2759,237 +3455,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>214</v>
+        <v>283</v>
       </c>
       <c r="C1" t="s">
-        <v>215</v>
+        <v>284</v>
       </c>
       <c r="D1" t="s">
-        <v>216</v>
+        <v>285</v>
       </c>
       <c r="E1" t="s">
-        <v>217</v>
+        <v>286</v>
+      </c>
+      <c r="F1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>288</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>301</v>
       </c>
       <c r="C2" t="s">
-        <v>218</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>226</v>
+        <v>302</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>311</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>227</v>
+        <v>303</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>312</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>301</v>
       </c>
       <c r="C4" t="s">
-        <v>220</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>228</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>235</v>
+        <v>313</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>291</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>301</v>
       </c>
       <c r="C5" t="s">
-        <v>221</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>314</v>
+      </c>
+      <c r="F5" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>292</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>301</v>
       </c>
       <c r="C6" t="s">
-        <v>222</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>230</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>125</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>293</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>301</v>
       </c>
       <c r="C7" t="s">
-        <v>204</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>294</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>301</v>
       </c>
       <c r="C8" t="s">
-        <v>164</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>132</v>
+        <v>306</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>315</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>295</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>301</v>
       </c>
       <c r="C9" t="s">
-        <v>223</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>99</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>296</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>301</v>
       </c>
       <c r="C10" t="s">
-        <v>70</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>232</v>
+        <v>307</v>
       </c>
       <c r="E10" t="s">
-        <v>152</v>
+        <v>316</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>297</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
       <c r="C11" t="s">
-        <v>224</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>317</v>
+      </c>
+      <c r="F11" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>298</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>301</v>
       </c>
       <c r="C12" t="s">
-        <v>225</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>72</v>
+        <v>308</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>318</v>
+      </c>
+      <c r="F12" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>299</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>301</v>
       </c>
       <c r="C13" t="s">
-        <v>180</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>234</v>
+        <v>309</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>319</v>
+      </c>
+      <c r="F13" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>300</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>301</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>198</v>
+        <v>310</v>
       </c>
       <c r="E14" t="s">
-        <v>236</v>
+        <v>320</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3008,237 +3746,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>237</v>
+        <v>324</v>
       </c>
       <c r="C1" t="s">
-        <v>238</v>
+        <v>325</v>
       </c>
       <c r="D1" t="s">
-        <v>239</v>
+        <v>326</v>
       </c>
       <c r="E1" t="s">
-        <v>240</v>
+        <v>327</v>
+      </c>
+      <c r="F1" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>342</v>
       </c>
       <c r="C2" t="s">
-        <v>241</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>252</v>
+        <v>343</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>355</v>
+      </c>
+      <c r="F2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>330</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>342</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>253</v>
+        <v>344</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>356</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="C4" t="s">
-        <v>243</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>254</v>
+        <v>345</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>357</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>332</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>342</v>
       </c>
       <c r="C5" t="s">
-        <v>244</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>255</v>
+        <v>346</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>358</v>
+      </c>
+      <c r="F5" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>342</v>
       </c>
       <c r="C6" t="s">
-        <v>245</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>256</v>
+        <v>347</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>359</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>342</v>
       </c>
       <c r="C7" t="s">
-        <v>197</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>257</v>
+        <v>348</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>360</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>335</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>342</v>
       </c>
       <c r="C8" t="s">
-        <v>246</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>258</v>
+        <v>349</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>361</v>
+      </c>
+      <c r="F8" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>342</v>
       </c>
       <c r="C9" t="s">
-        <v>247</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>259</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>342</v>
       </c>
       <c r="C10" t="s">
-        <v>248</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>260</v>
+        <v>351</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>362</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>342</v>
       </c>
       <c r="C11" t="s">
-        <v>249</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>261</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>263</v>
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>342</v>
       </c>
       <c r="C12" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>257</v>
+        <v>352</v>
       </c>
       <c r="E12" t="s">
-        <v>56</v>
+        <v>363</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>340</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>342</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>262</v>
+        <v>353</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>364</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>341</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>342</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>354</v>
       </c>
       <c r="E14" t="s">
-        <v>264</v>
+        <v>365</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -3257,237 +4037,279 @@
     <row r="1">
       <c r="A1"/>
       <c r="B1" t="s">
-        <v>265</v>
+        <v>367</v>
       </c>
       <c r="C1" t="s">
-        <v>266</v>
+        <v>368</v>
       </c>
       <c r="D1" t="s">
-        <v>267</v>
+        <v>369</v>
       </c>
       <c r="E1" t="s">
-        <v>268</v>
+        <v>370</v>
+      </c>
+      <c r="F1" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>372</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>385</v>
       </c>
       <c r="C2" t="s">
-        <v>269</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>386</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>396</v>
+      </c>
+      <c r="F2" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>373</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>385</v>
       </c>
       <c r="C3" t="s">
-        <v>270</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>387</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>397</v>
+      </c>
+      <c r="F3" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>374</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>385</v>
       </c>
       <c r="C4" t="s">
-        <v>271</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>388</v>
       </c>
       <c r="E4" t="s">
-        <v>56</v>
+        <v>398</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>385</v>
       </c>
       <c r="C5" t="s">
-        <v>272</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>281</v>
+        <v>389</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>399</v>
+      </c>
+      <c r="F5" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>376</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>385</v>
       </c>
       <c r="C6" t="s">
-        <v>273</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>390</v>
       </c>
       <c r="E6" t="s">
-        <v>56</v>
+        <v>400</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>377</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>385</v>
       </c>
       <c r="C7" t="s">
-        <v>72</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>283</v>
+        <v>126</v>
       </c>
       <c r="E7" t="s">
-        <v>288</v>
+        <v>126</v>
+      </c>
+      <c r="F7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>378</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>385</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>391</v>
       </c>
       <c r="E8" t="s">
-        <v>56</v>
+        <v>401</v>
+      </c>
+      <c r="F8" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>379</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>385</v>
       </c>
       <c r="C9" t="s">
-        <v>274</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>284</v>
+        <v>350</v>
       </c>
       <c r="E9" t="s">
-        <v>56</v>
+        <v>263</v>
+      </c>
+      <c r="F9" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>385</v>
       </c>
       <c r="C10" t="s">
-        <v>275</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>285</v>
+        <v>392</v>
       </c>
       <c r="E10" t="s">
-        <v>56</v>
+        <v>402</v>
+      </c>
+      <c r="F10" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>381</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>385</v>
       </c>
       <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>317</v>
+      </c>
+      <c r="E11" t="s">
         <v>276</v>
       </c>
-      <c r="D11" t="s">
-        <v>286</v>
-      </c>
-      <c r="E11" t="s">
-        <v>289</v>
+      <c r="F11" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>382</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>385</v>
       </c>
       <c r="C12" t="s">
-        <v>277</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>287</v>
+        <v>393</v>
       </c>
       <c r="E12" t="s">
-        <v>290</v>
+        <v>403</v>
+      </c>
+      <c r="F12" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>385</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>103</v>
+        <v>394</v>
       </c>
       <c r="E13" t="s">
-        <v>56</v>
+        <v>404</v>
+      </c>
+      <c r="F13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>384</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>385</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>210</v>
+        <v>395</v>
       </c>
       <c r="E14" t="s">
-        <v>291</v>
+        <v>405</v>
+      </c>
+      <c r="F14" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
